--- a/documentacion/hardware-comparison.xlsx
+++ b/documentacion/hardware-comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fcela\Documents\Cornell\prl-app\documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABC63357-C851-4012-9992-9521C70932A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94886ED-F77F-454B-920F-B46850D9304F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9950" xr2:uid="{76AEA7CC-1434-44B3-B0BF-F085CAD853CC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="65">
   <si>
     <t>DEVICE</t>
   </si>
@@ -87,18 +87,6 @@
     <t>BAT LIFE (h)</t>
   </si>
   <si>
-    <t>Apple Watch 6</t>
-  </si>
-  <si>
-    <t>Apple Watch 5</t>
-  </si>
-  <si>
-    <t>Apple Watch 4</t>
-  </si>
-  <si>
-    <t>Apple Watch 3</t>
-  </si>
-  <si>
     <t xml:space="preserve">ATRIAL FIBRILATION </t>
   </si>
   <si>
@@ -120,9 +108,6 @@
     <t>EXERCISE TIME</t>
   </si>
   <si>
-    <t>STANDING</t>
-  </si>
-  <si>
     <t>SOURCES</t>
   </si>
   <si>
@@ -180,9 +165,6 @@
     <t>SKIN TEMP</t>
   </si>
   <si>
-    <t>+144</t>
-  </si>
-  <si>
     <t>Fitbit Sense Full Specifications, Features and Price (smartwatchchart.com)</t>
   </si>
   <si>
@@ -199,6 +181,45 @@
   </si>
   <si>
     <t>Y* (No dedicated sensor but capable at night)</t>
+  </si>
+  <si>
+    <t>Apple Watch SE</t>
+  </si>
+  <si>
+    <t>$279</t>
+  </si>
+  <si>
+    <t>Apple Watch SE (40mm) (GPS) Specifications/Features/Review and Price (smartwatchchart.com)</t>
+  </si>
+  <si>
+    <t>Y* (has sensor but no tracking capabilities)</t>
+  </si>
+  <si>
+    <t>Manage fall detection on Apple Watch (Apple Watch SE and Apple Watch Series 4 and later only) – Apple Support (UK)</t>
+  </si>
+  <si>
+    <t>STAND ALERT</t>
+  </si>
+  <si>
+    <t>7*24</t>
+  </si>
+  <si>
+    <t>+6*24</t>
+  </si>
+  <si>
+    <t>Fitbit Versa 2</t>
+  </si>
+  <si>
+    <t>Amaxfit, Mi band</t>
+  </si>
+  <si>
+    <t>Gadgetbridge</t>
+  </si>
+  <si>
+    <t>$130</t>
+  </si>
+  <si>
+    <t>WiFi, Bluetooth 4.0, NFC</t>
   </si>
 </sst>
 </file>
@@ -610,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{465CD739-08BE-4782-9CDF-EE5DEF1CA8B6}">
-  <dimension ref="B1:AI11"/>
+  <dimension ref="B1:AI13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -741,49 +762,49 @@
         <v>18</v>
       </c>
       <c r="R3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S3" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="S3" s="6" t="s">
-        <v>49</v>
-      </c>
       <c r="T3" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="U3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="W3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="V3" s="7" t="s">
+      <c r="X3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="W3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="X3" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="Y3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z3" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="Z3" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA3" s="8" t="s">
-        <v>35</v>
-      </c>
       <c r="AB3" s="8" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AC3" s="8" t="s">
         <v>19</v>
       </c>
       <c r="AD3" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AE3" s="9" t="s">
         <v>5</v>
       </c>
       <c r="AI3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="2:35" x14ac:dyDescent="0.35">
@@ -791,13 +812,13 @@
         <v>6</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>7</v>
@@ -836,13 +857,13 @@
         <v>7</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="S4" s="6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="T4" s="6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="U4" s="7" t="s">
         <v>7</v>
@@ -863,7 +884,7 @@
         <v>7</v>
       </c>
       <c r="AA4" s="8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="AB4" s="8">
         <v>32</v>
@@ -875,312 +896,418 @@
         <v>50</v>
       </c>
       <c r="AI4" s="10" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="2:35" x14ac:dyDescent="0.35">
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>52</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="W5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="X5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB5" s="8">
+        <v>32</v>
+      </c>
+      <c r="AC5" s="8">
+        <v>18</v>
+      </c>
+      <c r="AD5" s="8">
+        <v>50</v>
       </c>
       <c r="AI5" s="10" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="2:35" x14ac:dyDescent="0.35">
       <c r="B6" s="5" t="s">
-        <v>21</v>
+        <v>33</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="S6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="V6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="W6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="X6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB6" s="8">
+        <v>16</v>
+      </c>
+      <c r="AC6" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD6" s="8">
+        <v>50</v>
       </c>
       <c r="AI6" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="2:35" x14ac:dyDescent="0.35">
       <c r="B7" s="5" t="s">
-        <v>22</v>
+        <v>41</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="U7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="V7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="W7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="X7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB7" s="8">
+        <v>4</v>
+      </c>
+      <c r="AC7" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD7" s="8">
+        <v>50</v>
       </c>
       <c r="AI7" s="10" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="2:35" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
-        <v>23</v>
+        <v>47</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="U8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="V8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="W8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="X8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC8" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD8" s="8">
+        <v>50</v>
       </c>
       <c r="AI8" s="10" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="2:35" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>7</v>
-      </c>
       <c r="O9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="P9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="R9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="S9" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="T9" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="U9" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="V9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="W9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="X9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z9" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA9" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB9" s="8">
-        <v>16</v>
-      </c>
-      <c r="AC9" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD9" s="8">
-        <v>50</v>
+      <c r="AI9" s="10" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="2:35" x14ac:dyDescent="0.35">
-      <c r="B10" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="O10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="P10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="R10" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="S10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="T10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="U10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="V10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="W10" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="X10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z10" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA10" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB10" s="8">
-        <v>4</v>
-      </c>
-      <c r="AC10" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="AD10" s="8">
-        <v>50</v>
+      <c r="AI10" s="10" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="11" spans="2:35" x14ac:dyDescent="0.35">
-      <c r="B11" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="O11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="P11" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q11" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="R11" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="S11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="T11" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="U11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="V11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="W11" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="X11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z11" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA11" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC11" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="AD11" s="8">
-        <v>50</v>
+    <row r="12" spans="2:35" x14ac:dyDescent="0.35">
+      <c r="B12" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="2:35" x14ac:dyDescent="0.35">
+      <c r="B13" s="5" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="AI4" r:id="rId1" display="https://support.apple.com/kb/SP860?locale=en_GB" xr:uid="{74EF2207-0231-4029-9AA9-A5085071C3E4}"/>
-    <hyperlink ref="AI5" r:id="rId2" display="https://www.wareable.com/apple/apple-watch-tips-and-tricks-iwatch-7383" xr:uid="{5BC02B21-221F-4E32-83E2-001C63942F1C}"/>
-    <hyperlink ref="AI6" r:id="rId3" display="https://www.samsung.com/global/galaxy/galaxy-watch4/specs/" xr:uid="{E05F4D44-6621-466A-B1F3-0C78CEDF9FC9}"/>
-    <hyperlink ref="AI7" r:id="rId4" display="https://www.macworld.com/article/234535/fitbit-sense-vs-versa-3-design-sensors-fitness-health-price.html" xr:uid="{1058983D-D140-4BD1-8554-B48F05152550}"/>
-    <hyperlink ref="AI8" r:id="rId5" display="https://smartwatchchart.com/smartwatches/fitbit-sense-full-specifications-features-and-price/" xr:uid="{470627A3-D0A1-4CC9-A770-43C8F5CAB75C}"/>
+    <hyperlink ref="AI8" r:id="rId2" display="https://smartwatchchart.com/smartwatches/fitbit-sense-full-specifications-features-and-price/" xr:uid="{470627A3-D0A1-4CC9-A770-43C8F5CAB75C}"/>
+    <hyperlink ref="AI7" r:id="rId3" display="https://www.macworld.com/article/234535/fitbit-sense-vs-versa-3-design-sensors-fitness-health-price.html" xr:uid="{1058983D-D140-4BD1-8554-B48F05152550}"/>
+    <hyperlink ref="AI6" r:id="rId4" display="https://www.samsung.com/global/galaxy/galaxy-watch4/specs/" xr:uid="{E05F4D44-6621-466A-B1F3-0C78CEDF9FC9}"/>
+    <hyperlink ref="AI5" r:id="rId5" display="https://www.wareable.com/apple/apple-watch-tips-and-tricks-iwatch-7383" xr:uid="{5BC02B21-221F-4E32-83E2-001C63942F1C}"/>
+    <hyperlink ref="AI9" r:id="rId6" display="https://support.apple.com/en-gb/guide/watch/apd34c409704/watchos" xr:uid="{55117C8C-6FD8-4AD5-873A-AE707768A6A1}"/>
+    <hyperlink ref="AI10" r:id="rId7" display="https://smartwatchchart.com/smartwatches/apple-watch-se-40mm-gps-specifications-features-review-and-price/" xr:uid="{5CD9A021-AFBB-467E-9A88-D0691A98BB13}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documentacion/hardware-comparison.xlsx
+++ b/documentacion/hardware-comparison.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fcela\Documents\Cornell\prl-app\documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94886ED-F77F-454B-920F-B46850D9304F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA24921C-BB72-4153-8113-9DE0BEF7C65C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9950" xr2:uid="{76AEA7CC-1434-44B3-B0BF-F085CAD853CC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9950" activeTab="1" xr2:uid="{76AEA7CC-1434-44B3-B0BF-F085CAD853CC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Basic Info" sheetId="1" r:id="rId1"/>
+    <sheet name="App dev" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="82">
   <si>
     <t>DEVICE</t>
   </si>
@@ -207,19 +208,70 @@
     <t>+6*24</t>
   </si>
   <si>
-    <t>Fitbit Versa 2</t>
-  </si>
-  <si>
     <t>Amaxfit, Mi band</t>
   </si>
   <si>
     <t>Gadgetbridge</t>
   </si>
   <si>
-    <t>$130</t>
-  </si>
-  <si>
     <t>WiFi, Bluetooth 4.0, NFC</t>
+  </si>
+  <si>
+    <t>SDK</t>
+  </si>
+  <si>
+    <t>Fitbit</t>
+  </si>
+  <si>
+    <t>BAROMETER</t>
+  </si>
+  <si>
+    <t>DISTANCE</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>SPEED</t>
+  </si>
+  <si>
+    <t>HAPTIC</t>
+  </si>
+  <si>
+    <t>ORIENTATION</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>HKQuantityTypeIdentifier | Apple Developer Documentation</t>
+  </si>
+  <si>
+    <t>HKElectrocardiogramType | Apple Developer Documentation</t>
+  </si>
+  <si>
+    <t>Adding Samples to a Workout | Apple Developer Documentation</t>
+  </si>
+  <si>
+    <t>Running Workout Sessions | Apple Developer Documentation</t>
+  </si>
+  <si>
+    <t>Symptom Type Identifiers | Apple Developer Documentation</t>
+  </si>
+  <si>
+    <t>HKCategoryTypeIdentifier | Apple Developer Documentation</t>
+  </si>
+  <si>
+    <t>DataType  |  Android Developers</t>
+  </si>
+  <si>
+    <t>Device API (fitbit.com)</t>
+  </si>
+  <si>
+    <t>Fitbit Versa 3</t>
+  </si>
+  <si>
+    <t>$180</t>
   </si>
 </sst>
 </file>
@@ -633,8 +685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{465CD739-08BE-4782-9CDF-EE5DEF1CA8B6}">
   <dimension ref="B1:AI13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1260,25 +1312,52 @@
     </row>
     <row r="9" spans="2:35" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="H9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="O9" s="6" t="s">
         <v>7</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="S9" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="AI9" s="10" t="s">
         <v>56</v>
@@ -1291,12 +1370,12 @@
     </row>
     <row r="12" spans="2:35" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="2:35" x14ac:dyDescent="0.35">
       <c r="B13" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1311,4 +1390,146 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32536BB6-F207-423E-8F76-D819DD15BC4C}">
+  <dimension ref="B4:M14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="K2" zoomScale="127" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="M7" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="M8" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="M9" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="M10" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="M11" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="M14" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M6" r:id="rId1" display="https://developer.apple.com/documentation/healthkit/hkquantitytypeidentifier" xr:uid="{64B0C62D-6A57-4D7A-8D02-E7F838F7E68B}"/>
+    <hyperlink ref="M7" r:id="rId2" display="https://developer.apple.com/documentation/healthkit/hkelectrocardiogramtype" xr:uid="{C45A2958-BA7A-4EF2-A8B5-F0BA691523E6}"/>
+    <hyperlink ref="M8" r:id="rId3" display="https://developer.apple.com/documentation/healthkit/workouts_and_activity_rings/adding_samples_to_a_workout" xr:uid="{29ACCB02-02A7-4C96-8583-A2186AB3839D}"/>
+    <hyperlink ref="M9" r:id="rId4" display="https://developer.apple.com/documentation/healthkit/workouts_and_activity_rings/running_workout_sessions" xr:uid="{C4965CE2-3543-415A-A0B8-4444D53CCB22}"/>
+    <hyperlink ref="M10" r:id="rId5" display="https://developer.apple.com/documentation/healthkit/data_types/symptom_type_identifiers" xr:uid="{783F27FB-04B9-48C2-8D1F-3C057FF8F786}"/>
+    <hyperlink ref="M11" r:id="rId6" display="https://developer.apple.com/documentation/healthkit/hkcategorytypeidentifier" xr:uid="{F08C58F0-2F3D-4373-9197-83875A96DFC3}"/>
+    <hyperlink ref="M14" r:id="rId7" display="https://developer.android.com/reference/kotlin/androidx/health/services/client/data/DataType" xr:uid="{6E849856-58BB-42E4-8A84-AA1D20EBDD5E}"/>
+    <hyperlink ref="M5" r:id="rId8" display="https://dev.fitbit.com/build/reference/device-api/" xr:uid="{8365CCF3-6F57-40B9-9181-37B1A84815D0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>